--- a/datastatic/datasets/online/Kopie_von_C2_gini_oecd_2013.xlsx
+++ b/datastatic/datasets/online/Kopie_von_C2_gini_oecd_2013.xlsx
@@ -25,7 +25,7 @@
     <t>title_German</t>
   </si>
   <si>
-    <t>Einkommensungleichheit (Palma)</t>
+    <t>Einkommensungleichheit (Gini)</t>
   </si>
   <si>
     <t>sdg</t>
